--- a/data/GOresults.xlsx
+++ b/data/GOresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/GitHub/IntegrativeProjectWT2015/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{733488BB-3C39-2E46-82B6-844C2F1AD039}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E1BD04-258D-8C4C-AEF3-551AECD2DE9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1320" windowWidth="19980" windowHeight="13440" activeTab="4" xr2:uid="{DBA7A480-6F43-9542-A485-BF73A142B0FA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="20480" activeTab="6" xr2:uid="{DBA7A480-6F43-9542-A485-BF73A142B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DG enriched" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="CA1 train depeleted" sheetId="4" r:id="rId3"/>
     <sheet name="CA1 yoked conflict enriched" sheetId="6" r:id="rId4"/>
     <sheet name="CA1 yoked conflict depleted" sheetId="7" r:id="rId5"/>
+    <sheet name="all" sheetId="8" r:id="rId6"/>
+    <sheet name="top5" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="211">
   <si>
     <t>GO term</t>
   </si>
@@ -634,13 +636,46 @@
   </si>
   <si>
     <t>43.81 (11500,3,175,2)</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>enriched</t>
+  </si>
+  <si>
+    <t>CA1</t>
+  </si>
+  <si>
+    <t>depleted</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>Subfield</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Enrichment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,6 +704,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -691,12 +787,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1012,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE3D19E-AA93-B448-ACE5-DF07C02557C7}">
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J31" sqref="A2:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1143,7 @@
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1065,8 +1182,20 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1214,20 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1105,8 +1246,20 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1125,8 +1278,20 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1145,8 +1310,20 @@
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1165,8 +1342,20 @@
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1185,8 +1374,20 @@
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1205,8 +1406,20 @@
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1225,8 +1438,20 @@
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1245,8 +1470,20 @@
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1265,24 +1502,65 @@
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,8 +1579,17 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1324,8 +1611,17 @@
       <c r="G17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1347,8 +1643,39 @@
       <c r="G18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,8 +1694,17 @@
       <c r="F21" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1387,8 +1723,20 @@
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1407,8 +1755,20 @@
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1427,8 +1787,20 @@
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1447,8 +1819,20 @@
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -1467,8 +1851,20 @@
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -1487,8 +1883,20 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1507,8 +1915,20 @@
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1527,8 +1947,20 @@
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1547,8 +1979,20 @@
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1567,8 +2011,20 @@
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -3971,597 +4427,772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A229F8-E723-D644-9E9E-F5AA05E287DA}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A22" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.13E-5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5.13E-5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.1900000000000001E-4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.6200000000000001E-4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6.0800000000000003E-4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.183</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8.4900000000000004E-4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G11" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.6300000000000001E-5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2.9599999999999998E-4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.183</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="4">
-        <v>4.1100000000000002E-4</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.5800000000000001E-5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.219</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.12E-5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.12E-5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.27E-5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="4">
-        <v>5.27E-5</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.9700000000000001E-5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.81E-5</v>
+      </c>
+      <c r="D18" s="4">
         <v>0.245</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="E18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G18" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="4">
-        <v>5.9700000000000001E-5</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.48E-5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4">
-        <v>8.81E-5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.245</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.7899999999999994E-5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="G20" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="4">
-        <v>9.48E-5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="4">
-        <v>9.7899999999999994E-5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - p_value_info" xr:uid="{B84D1815-A2F1-5748-A18B-5F05056ED5F7}"/>
-    <hyperlink ref="E1" r:id="rId2" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - fdr_info" xr:uid="{B99D4FEB-C15D-6144-9730-91FE6313BFFB}"/>
-    <hyperlink ref="F1" r:id="rId3" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - enrich_info" xr:uid="{AABF7EE2-29C5-0C44-9D5B-B76D441E4D03}"/>
-    <hyperlink ref="G1" r:id="rId4" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - genes_info" xr:uid="{9E4100F9-456E-E744-86C6-80B8F0163189}"/>
-    <hyperlink ref="B2" r:id="rId5" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0099508&amp;view=details" xr:uid="{8367D1CE-3B9B-D54F-9D27-94ADF3E7A9BD}"/>
-    <hyperlink ref="G2" r:id="rId6" display="javascript:toggle('elements_GO:0099508')" xr:uid="{60F481C4-6DC1-C345-8D49-040936ABFB37}"/>
-    <hyperlink ref="B3" r:id="rId7" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005251&amp;view=details" xr:uid="{B43AFACC-95C7-104D-8E03-42E5BFED2B17}"/>
-    <hyperlink ref="G3" r:id="rId8" display="javascript:toggle('elements_GO:0005251')" xr:uid="{058C52B6-F1C8-F24F-9081-EEB9B87C3F16}"/>
-    <hyperlink ref="B4" r:id="rId9" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0015079&amp;view=details" xr:uid="{7630DF8D-9533-D448-A5A6-1139AB542755}"/>
-    <hyperlink ref="G4" r:id="rId10" display="javascript:toggle('elements_GO:0015079')" xr:uid="{BE61CB2C-A55D-374B-8E90-65A8B45CC728}"/>
-    <hyperlink ref="B5" r:id="rId11" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005267&amp;view=details" xr:uid="{1EE1DB1C-A02E-E64C-B75C-68F360489AC2}"/>
-    <hyperlink ref="G5" r:id="rId12" display="javascript:toggle('elements_GO:0005267')" xr:uid="{F098BFB5-C0C6-7244-BCEF-AECEA18D43A4}"/>
-    <hyperlink ref="D7" r:id="rId13" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - p_value_info" xr:uid="{6882D9D3-9D39-FE43-B40C-FA4AC0D6D830}"/>
-    <hyperlink ref="E7" r:id="rId14" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - fdr_info" xr:uid="{07D7E500-0101-6D41-8DB3-CA29DAEB95C4}"/>
-    <hyperlink ref="F7" r:id="rId15" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - enrich_info" xr:uid="{EDB336A9-4FDB-964E-8B50-CADD93F0A869}"/>
-    <hyperlink ref="G7" r:id="rId16" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - genes_info" xr:uid="{0CAD2D72-71A4-F743-9C00-16152B441CC6}"/>
-    <hyperlink ref="B8" r:id="rId17" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034705&amp;view=details" xr:uid="{215D8BB8-15B3-E04E-8FDF-C7A61D46CC64}"/>
-    <hyperlink ref="G8" r:id="rId18" display="javascript:toggle('elements_GO:0034705')" xr:uid="{BCA3C167-BF2A-9842-9DBC-61418E0B1864}"/>
-    <hyperlink ref="B9" r:id="rId19" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008076&amp;view=details" xr:uid="{82F56E74-5586-1841-9C5E-536F67C5E4E8}"/>
-    <hyperlink ref="G9" r:id="rId20" display="javascript:toggle('elements_GO:0008076')" xr:uid="{366580E3-23B9-4344-BE4D-8E59EB5F8CE1}"/>
-    <hyperlink ref="B10" r:id="rId21" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0098797&amp;view=details" xr:uid="{9095004E-D51C-9E4C-9AAE-2FAC6D2C4F0F}"/>
-    <hyperlink ref="G10" r:id="rId22" display="javascript:toggle('elements_GO:0098797')" xr:uid="{A8A7C42E-9694-994C-97A9-3B2DC3E9BC98}"/>
-    <hyperlink ref="B11" r:id="rId23" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034703&amp;view=details" xr:uid="{DE032103-63E4-BF4B-9820-548954A8471E}"/>
-    <hyperlink ref="G11" r:id="rId24" display="javascript:toggle('elements_GO:0034703')" xr:uid="{D9A6F4F7-36A6-DA42-8790-B5A79302A20F}"/>
-    <hyperlink ref="D13" r:id="rId25" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - p_value_info" xr:uid="{CA18B5CE-FA49-6A47-B14D-B3FF50082962}"/>
-    <hyperlink ref="E13" r:id="rId26" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - fdr_info" xr:uid="{FB5AEB7B-493D-5047-8996-7259E20ADCC9}"/>
-    <hyperlink ref="F13" r:id="rId27" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - enrich_info" xr:uid="{8C44E067-36A8-B940-9218-4E2890FB116D}"/>
-    <hyperlink ref="G13" r:id="rId28" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - genes_info" xr:uid="{AC49B0FC-3946-A542-9741-7D3CC6B847A1}"/>
-    <hyperlink ref="B14" r:id="rId29" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0048856&amp;view=details" xr:uid="{265B98E9-3DB3-244A-8790-E9B14E9F037B}"/>
-    <hyperlink ref="G14" r:id="rId30" display="javascript:toggle('elements_GO:0048856')" xr:uid="{C4ACFC8D-FF26-A242-935C-9D834D143509}"/>
-    <hyperlink ref="B15" r:id="rId31" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009653&amp;view=details" xr:uid="{45CDD0C1-A1CA-AF47-BE76-66BF984AFD51}"/>
-    <hyperlink ref="G15" r:id="rId32" display="javascript:toggle('elements_GO:0009653')" xr:uid="{E81FA47C-C2A3-7747-9A9B-1AEB47CCA907}"/>
-    <hyperlink ref="B16" r:id="rId33" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901381&amp;view=details" xr:uid="{FCB9D9F2-1CFC-3541-AD96-269D3B5FBEF7}"/>
-    <hyperlink ref="G16" r:id="rId34" display="javascript:toggle('elements_GO:1901381')" xr:uid="{F5EC9866-986B-1445-B7E9-0897411F7E94}"/>
-    <hyperlink ref="B17" r:id="rId35" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034764&amp;view=details" xr:uid="{C73084E5-82A7-4B47-A572-B4069EB96218}"/>
-    <hyperlink ref="G17" r:id="rId36" display="javascript:toggle('elements_GO:0034764')" xr:uid="{D38DEF33-F144-1947-9DD8-289AAD592C19}"/>
-    <hyperlink ref="B18" r:id="rId37" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034762&amp;view=details" xr:uid="{D6228EA3-ED0D-6D4E-9E0D-BA9A0727C715}"/>
-    <hyperlink ref="G18" r:id="rId38" display="javascript:toggle('elements_GO:0034762')" xr:uid="{4939F585-FBD0-7F45-8B65-57A025F61F04}"/>
-    <hyperlink ref="B19" r:id="rId39" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901018&amp;view=details" xr:uid="{FDDD15D3-F3AF-B442-95B0-91A0681EE5B5}"/>
-    <hyperlink ref="G19" r:id="rId40" display="javascript:toggle('elements_GO:1901018')" xr:uid="{08A6D3D7-67D0-EB46-8418-D62371A2DE87}"/>
-    <hyperlink ref="B20" r:id="rId41" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1904064&amp;view=details" xr:uid="{C3A1F3E6-2B8B-7B44-B876-59E0F4F88662}"/>
-    <hyperlink ref="G20" r:id="rId42" display="javascript:toggle('elements_GO:1904064')" xr:uid="{3A361CFB-11EA-A848-8948-F7B010A3E483}"/>
+    <hyperlink ref="C1" r:id="rId1" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - p_value_info" xr:uid="{B84D1815-A2F1-5748-A18B-5F05056ED5F7}"/>
+    <hyperlink ref="D1" r:id="rId2" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - fdr_info" xr:uid="{B99D4FEB-C15D-6144-9730-91FE6313BFFB}"/>
+    <hyperlink ref="E1" r:id="rId3" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - enrich_info" xr:uid="{AABF7EE2-29C5-0C44-9D5B-B76D441E4D03}"/>
+    <hyperlink ref="F1" r:id="rId4" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsFUNCTION.html - genes_info" xr:uid="{9E4100F9-456E-E744-86C6-80B8F0163189}"/>
+    <hyperlink ref="A2" r:id="rId5" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0099508&amp;view=details" xr:uid="{8367D1CE-3B9B-D54F-9D27-94ADF3E7A9BD}"/>
+    <hyperlink ref="A3" r:id="rId6" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005251&amp;view=details" xr:uid="{B43AFACC-95C7-104D-8E03-42E5BFED2B17}"/>
+    <hyperlink ref="A4" r:id="rId7" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0015079&amp;view=details" xr:uid="{7630DF8D-9533-D448-A5A6-1139AB542755}"/>
+    <hyperlink ref="A5" r:id="rId8" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005267&amp;view=details" xr:uid="{1EE1DB1C-A02E-E64C-B75C-68F360489AC2}"/>
+    <hyperlink ref="C7" r:id="rId9" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - p_value_info" xr:uid="{6882D9D3-9D39-FE43-B40C-FA4AC0D6D830}"/>
+    <hyperlink ref="D7" r:id="rId10" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - fdr_info" xr:uid="{07D7E500-0101-6D41-8DB3-CA29DAEB95C4}"/>
+    <hyperlink ref="E7" r:id="rId11" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - enrich_info" xr:uid="{EDB336A9-4FDB-964E-8B50-CADD93F0A869}"/>
+    <hyperlink ref="A8" r:id="rId12" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034705&amp;view=details" xr:uid="{215D8BB8-15B3-E04E-8FDF-C7A61D46CC64}"/>
+    <hyperlink ref="A9" r:id="rId13" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008076&amp;view=details" xr:uid="{82F56E74-5586-1841-9C5E-536F67C5E4E8}"/>
+    <hyperlink ref="A10" r:id="rId14" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0098797&amp;view=details" xr:uid="{9095004E-D51C-9E4C-9AAE-2FAC6D2C4F0F}"/>
+    <hyperlink ref="A11" r:id="rId15" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034703&amp;view=details" xr:uid="{DE032103-63E4-BF4B-9820-548954A8471E}"/>
+    <hyperlink ref="C13" r:id="rId16" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - p_value_info" xr:uid="{CA18B5CE-FA49-6A47-B14D-B3FF50082962}"/>
+    <hyperlink ref="D13" r:id="rId17" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - fdr_info" xr:uid="{FB5AEB7B-493D-5047-8996-7259E20ADCC9}"/>
+    <hyperlink ref="E13" r:id="rId18" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - enrich_info" xr:uid="{8C44E067-36A8-B940-9218-4E2890FB116D}"/>
+    <hyperlink ref="A14" r:id="rId19" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0048856&amp;view=details" xr:uid="{265B98E9-3DB3-244A-8790-E9B14E9F037B}"/>
+    <hyperlink ref="A15" r:id="rId20" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009653&amp;view=details" xr:uid="{45CDD0C1-A1CA-AF47-BE76-66BF984AFD51}"/>
+    <hyperlink ref="A16" r:id="rId21" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901381&amp;view=details" xr:uid="{FCB9D9F2-1CFC-3541-AD96-269D3B5FBEF7}"/>
+    <hyperlink ref="A17" r:id="rId22" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034764&amp;view=details" xr:uid="{C73084E5-82A7-4B47-A572-B4069EB96218}"/>
+    <hyperlink ref="A18" r:id="rId23" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034762&amp;view=details" xr:uid="{D6228EA3-ED0D-6D4E-9E0D-BA9A0727C715}"/>
+    <hyperlink ref="A19" r:id="rId24" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901018&amp;view=details" xr:uid="{FDDD15D3-F3AF-B442-95B0-91A0681EE5B5}"/>
+    <hyperlink ref="A20" r:id="rId25" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1904064&amp;view=details" xr:uid="{C3A1F3E6-2B8B-7B44-B876-59E0F4F88662}"/>
+    <hyperlink ref="F20" r:id="rId26" display="javascript:toggle('elements_GO:1904064')" xr:uid="{3A361CFB-11EA-A848-8948-F7B010A3E483}"/>
+    <hyperlink ref="F19" r:id="rId27" display="javascript:toggle('elements_GO:1901018')" xr:uid="{08A6D3D7-67D0-EB46-8418-D62371A2DE87}"/>
+    <hyperlink ref="F18" r:id="rId28" display="javascript:toggle('elements_GO:0034762')" xr:uid="{4939F585-FBD0-7F45-8B65-57A025F61F04}"/>
+    <hyperlink ref="F17" r:id="rId29" display="javascript:toggle('elements_GO:0034764')" xr:uid="{D38DEF33-F144-1947-9DD8-289AAD592C19}"/>
+    <hyperlink ref="F16" r:id="rId30" display="javascript:toggle('elements_GO:1901381')" xr:uid="{F5EC9866-986B-1445-B7E9-0897411F7E94}"/>
+    <hyperlink ref="F15" r:id="rId31" display="javascript:toggle('elements_GO:0009653')" xr:uid="{E81FA47C-C2A3-7747-9A9B-1AEB47CCA907}"/>
+    <hyperlink ref="F14" r:id="rId32" display="javascript:toggle('elements_GO:0048856')" xr:uid="{C4ACFC8D-FF26-A242-935C-9D834D143509}"/>
+    <hyperlink ref="F13" r:id="rId33" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/5zrwnguf/GOResultsPROCESS.html - genes_info" xr:uid="{AC49B0FC-3946-A542-9741-7D3CC6B847A1}"/>
+    <hyperlink ref="F11" r:id="rId34" display="javascript:toggle('elements_GO:0034703')" xr:uid="{D9A6F4F7-36A6-DA42-8790-B5A79302A20F}"/>
+    <hyperlink ref="F10" r:id="rId35" display="javascript:toggle('elements_GO:0098797')" xr:uid="{A8A7C42E-9694-994C-97A9-3B2DC3E9BC98}"/>
+    <hyperlink ref="F9" r:id="rId36" display="javascript:toggle('elements_GO:0008076')" xr:uid="{366580E3-23B9-4344-BE4D-8E59EB5F8CE1}"/>
+    <hyperlink ref="F8" r:id="rId37" display="javascript:toggle('elements_GO:0034705')" xr:uid="{BCA3C167-BF2A-9842-9DBC-61418E0B1864}"/>
+    <hyperlink ref="F7" r:id="rId38" location="genes_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/2cmgr3pd/GOResultsCOMPONENT.html - genes_info" xr:uid="{0CAD2D72-71A4-F743-9C00-16152B441CC6}"/>
+    <hyperlink ref="F5" r:id="rId39" display="javascript:toggle('elements_GO:0005267')" xr:uid="{F098BFB5-C0C6-7244-BCEF-AECEA18D43A4}"/>
+    <hyperlink ref="F4" r:id="rId40" display="javascript:toggle('elements_GO:0015079')" xr:uid="{BE61CB2C-A55D-374B-8E90-65A8B45CC728}"/>
+    <hyperlink ref="F3" r:id="rId41" display="javascript:toggle('elements_GO:0005251')" xr:uid="{058C52B6-F1C8-F24F-9081-EEB9B87C3F16}"/>
+    <hyperlink ref="F2" r:id="rId42" display="javascript:toggle('elements_GO:0099508')" xr:uid="{60F481C4-6DC1-C345-8D49-040936ABFB37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4569,10 +5200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D056C72-0403-E84A-B26F-23EACDB46AC4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J8" sqref="A2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4581,7 +5212,7 @@
     <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>103</v>
       </c>
@@ -4623,8 +5254,17 @@
       <c r="G2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -4646,8 +5286,17 @@
       <c r="G3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>136</v>
       </c>
@@ -4669,8 +5318,17 @@
       <c r="G4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>138</v>
       </c>
@@ -4692,8 +5350,17 @@
       <c r="G5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>140</v>
       </c>
@@ -4715,8 +5382,17 @@
       <c r="G6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>143</v>
       </c>
@@ -4738,8 +5414,17 @@
       <c r="G7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>105</v>
       </c>
@@ -4760,6 +5445,15 @@
       </c>
       <c r="G8" t="s">
         <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4789,10 +5483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F2CF9-6180-954C-8529-1C8D7BA08898}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4800,7 +5494,7 @@
     <col min="2" max="2" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4820,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>145</v>
       </c>
@@ -4842,8 +5536,17 @@
       <c r="G2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
@@ -4864,6 +5567,15 @@
       </c>
       <c r="G3" t="s">
         <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4883,10 +5595,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252949A-DA4B-5240-B7B3-AC57BD5FC701}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4894,7 +5606,7 @@
     <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4914,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>151</v>
       </c>
@@ -4936,8 +5648,17 @@
       <c r="G2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -4959,8 +5680,17 @@
       <c r="G3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>157</v>
       </c>
@@ -4982,8 +5712,17 @@
       <c r="G4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>160</v>
       </c>
@@ -5005,8 +5744,17 @@
       <c r="G5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
@@ -5028,8 +5776,17 @@
       <c r="G6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
@@ -5051,8 +5808,17 @@
       <c r="G7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>168</v>
       </c>
@@ -5074,8 +5840,17 @@
       <c r="G8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>171</v>
       </c>
@@ -5097,8 +5872,17 @@
       <c r="G9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>174</v>
       </c>
@@ -5120,8 +5904,17 @@
       <c r="G10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>177</v>
       </c>
@@ -5143,8 +5936,28 @@
       <c r="G11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5163,8 +5976,17 @@
       <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>180</v>
       </c>
@@ -5186,8 +6008,17 @@
       <c r="G14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>182</v>
       </c>
@@ -5209,8 +6040,17 @@
       <c r="G15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>184</v>
       </c>
@@ -5232,8 +6072,17 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>187</v>
       </c>
@@ -5255,8 +6104,17 @@
       <c r="G17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>189</v>
       </c>
@@ -5278,8 +6136,17 @@
       <c r="G18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>191</v>
       </c>
@@ -5301,8 +6168,17 @@
       <c r="G19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>193</v>
       </c>
@@ -5324,8 +6200,39 @@
       <c r="G20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5344,8 +6251,17 @@
       <c r="F23" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -5367,8 +6283,17 @@
       <c r="G24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -5390,8 +6315,17 @@
       <c r="G25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>197</v>
       </c>
@@ -5412,6 +6346,47 @@
       </c>
       <c r="G26" t="s">
         <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5468,6 +6443,3189 @@
     <hyperlink ref="F25" r:id="rId50" display="javascript:toggle('elements_GO:0016021')" xr:uid="{422847C1-61B8-F04F-B8C7-81DB3163433E}"/>
     <hyperlink ref="A26" r:id="rId51" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1905103&amp;view=details" xr:uid="{715A4BDE-BFB1-B940-BD35-25FECE2F2B91}"/>
     <hyperlink ref="F26" r:id="rId52" display="javascript:toggle('elements_GO:1905103')" xr:uid="{559BE7CD-07EE-2341-BB19-7CD0148CECEE}"/>
+    <hyperlink ref="A28" r:id="rId53" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009123&amp;view=details" xr:uid="{CA1FF029-55BC-7942-84B0-D1CE1E9CF2C5}"/>
+    <hyperlink ref="F28" r:id="rId54" display="javascript:toggle('elements_GO:0009123')" xr:uid="{63014166-183C-3B40-A343-DC22A8F1F166}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8A3288-763B-D544-A53E-019E5A4F1CE9}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.4100000000000001E-8</v>
+      </c>
+      <c r="H2" s="4">
+        <v>6.3700000000000003E-5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.9E-10</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.55E-6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8.38E-10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.6700000000000001E-6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.4200000000000006E-10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.2500000000000001E-6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.09E-9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.08E-6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.44E-9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.15E-6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.32E-8</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.9300000000000002E-5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3.85E-12</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.4E-8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.9900000000000001E-12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4.1899999999999998E-8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="4">
+        <v>9.3199999999999999E-12</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.3499999999999999E-8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.7099999999999996E-12</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.4E-8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.8199999999999998E-12</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.7500000000000001E-8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1.6200000000000001E-4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.183</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5.13E-5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.219</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2.12E-5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.27E-5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.9700000000000001E-5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8.81E-5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.245</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="4">
+        <v>9.48E-5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="4">
+        <v>9.7899999999999994E-5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.5400000000000002E-5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.214</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="4">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1.17E-4</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="8">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1.16E-4</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1.83E-4</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3.0600000000000001E-4</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="8">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="8">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="8">
+        <v>4.6E-5</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="8">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1.16E-4</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1.83E-4</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2.72E-4</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2.72E-4</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="8">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="8">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="H55" s="8">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="8">
+        <v>7.2400000000000003E-4</v>
+      </c>
+      <c r="H56" s="8">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="8">
+        <v>8.5499999999999997E-4</v>
+      </c>
+      <c r="H57" s="8">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:P86">
+    <sortCondition descending="1" ref="A2:A86"/>
+    <sortCondition descending="1" ref="B2:B86"/>
+    <sortCondition descending="1" ref="C2:C86"/>
+    <sortCondition ref="D2:D86"/>
+    <sortCondition ref="G2:G86"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/k7jqj1s8/GOResultsPROCESS.html - p_value_info" xr:uid="{7F635178-61CC-CC44-96E3-6D8BBFB9FB3B}"/>
+    <hyperlink ref="I1" r:id="rId2" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/k7jqj1s8/GOResultsPROCESS.html - enrich_info" xr:uid="{D4AD3D89-D9E2-D746-A20D-47378415D510}"/>
+    <hyperlink ref="E48" r:id="rId3" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0018195&amp;view=details" xr:uid="{AC467168-7B19-D749-93DB-B64D80D9E310}"/>
+    <hyperlink ref="E49" r:id="rId4" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0019919&amp;view=details" xr:uid="{400890DB-18C9-CA46-9E7E-C270AE5FE831}"/>
+    <hyperlink ref="E50" r:id="rId5" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035247&amp;view=details" xr:uid="{7EF99612-7E3E-1A47-836D-A3BB9808509B}"/>
+    <hyperlink ref="E51" r:id="rId6" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035246&amp;view=details" xr:uid="{B93631CE-7F42-5244-9A2B-70FE9B86C93F}"/>
+    <hyperlink ref="E52" r:id="rId7" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034969&amp;view=details" xr:uid="{3D92AFA1-A035-504B-9A2B-48F463DFE402}"/>
+    <hyperlink ref="E41" r:id="rId8" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035242&amp;view=details" xr:uid="{2F91A998-02FE-F24F-9889-447D7C63CBC7}"/>
+    <hyperlink ref="E42" r:id="rId9" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008469&amp;view=details" xr:uid="{2F61A434-560C-F34E-AFC7-9061E07BFB3B}"/>
+    <hyperlink ref="E43" r:id="rId10" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0017147&amp;view=details" xr:uid="{F1028805-E8CB-4F4F-BA0F-AC2657C7E78D}"/>
+    <hyperlink ref="E44" r:id="rId11" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016864&amp;view=details" xr:uid="{6A3EBC04-E739-8343-947A-C130266857B6}"/>
+    <hyperlink ref="E45" r:id="rId12" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016273&amp;view=details" xr:uid="{058E8907-B68A-F64B-B83B-88C8BBB61D79}"/>
+    <hyperlink ref="E46" r:id="rId13" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016274&amp;view=details" xr:uid="{8523503F-1501-A34D-80D3-31219C09F51C}"/>
+    <hyperlink ref="E47" r:id="rId14" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0003756&amp;view=details" xr:uid="{E2F5204B-96A4-1443-931C-5B00DBAD4B3E}"/>
+    <hyperlink ref="E38" r:id="rId15" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0031224&amp;view=details" xr:uid="{D90A35AF-D407-E04A-BD18-F85CD2601AB8}"/>
+    <hyperlink ref="E39" r:id="rId16" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016021&amp;view=details" xr:uid="{DA0DDFF5-C59A-E34A-BA0E-B39CD5831337}"/>
+    <hyperlink ref="E40" r:id="rId17" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1905103&amp;view=details" xr:uid="{95245F1D-0A51-B74D-AAB4-E78F5EDEDE39}"/>
+    <hyperlink ref="E30" r:id="rId18" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0090502&amp;view=details" xr:uid="{0BD7CEB9-D228-CE49-93AF-101664ACD971}"/>
+    <hyperlink ref="E31" r:id="rId19" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0042730&amp;view=details" xr:uid="{FA087F14-08FB-0A4C-975B-9792E5767DD3}"/>
+    <hyperlink ref="E32" r:id="rId20" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060278&amp;view=details" xr:uid="{116A6927-D623-694D-A463-7D2739A1F4D4}"/>
+    <hyperlink ref="E33" r:id="rId21" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060279&amp;view=details" xr:uid="{B9319BC6-FFAB-7F4F-83FA-8716FFE32259}"/>
+    <hyperlink ref="E34" r:id="rId22" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0001325&amp;view=details" xr:uid="{FD975AA5-1F92-F44C-9AED-3B98E53792CF}"/>
+    <hyperlink ref="E35" r:id="rId23" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0090656&amp;view=details" xr:uid="{E5E7451C-2357-334F-B6ED-DDDA42FA85E6}"/>
+    <hyperlink ref="E36" r:id="rId24" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0031639&amp;view=details" xr:uid="{AB5C69FD-F6F5-D445-AABD-998701E15873}"/>
+    <hyperlink ref="E19" r:id="rId25" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0099508&amp;view=details" xr:uid="{B3B2DB00-C2A3-6F49-B92E-B362C937A700}"/>
+    <hyperlink ref="E20" r:id="rId26" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005251&amp;view=details" xr:uid="{EAB94802-B539-6244-9F28-C1EB09FF6440}"/>
+    <hyperlink ref="E21" r:id="rId27" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0015079&amp;view=details" xr:uid="{16722900-1F30-A444-83DF-6C69F1F7FC83}"/>
+    <hyperlink ref="E22" r:id="rId28" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005267&amp;view=details" xr:uid="{82DA4FEA-B962-2E49-BA67-1A5C3B33FCD6}"/>
+    <hyperlink ref="E15" r:id="rId29" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034705&amp;view=details" xr:uid="{056F7DBC-A329-734A-92AA-0D574D3A0F13}"/>
+    <hyperlink ref="E16" r:id="rId30" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008076&amp;view=details" xr:uid="{7B1728CD-775D-4B4D-9C5B-E9F80F708A05}"/>
+    <hyperlink ref="E17" r:id="rId31" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0098797&amp;view=details" xr:uid="{B95AABF1-0768-CD4E-92F1-A0D6B1875F77}"/>
+    <hyperlink ref="E18" r:id="rId32" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034703&amp;view=details" xr:uid="{C6ECB645-2FCC-8E47-B7D0-1F1AC72FE68C}"/>
+    <hyperlink ref="E23" r:id="rId33" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0048856&amp;view=details" xr:uid="{904E6453-D21E-5B4A-BE12-E3EA14497D91}"/>
+    <hyperlink ref="E24" r:id="rId34" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009653&amp;view=details" xr:uid="{48D69656-ED2A-C54C-A266-D42B5037C37A}"/>
+    <hyperlink ref="E25" r:id="rId35" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901381&amp;view=details" xr:uid="{389CED87-EF1F-EE4C-98B5-2AB368C03ED2}"/>
+    <hyperlink ref="E26" r:id="rId36" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034764&amp;view=details" xr:uid="{EB64FD58-E980-C44F-B9EC-F39D9ED3874D}"/>
+    <hyperlink ref="E27" r:id="rId37" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034762&amp;view=details" xr:uid="{82DD8A60-F8CC-344A-A1DB-6B852D4C38AD}"/>
+    <hyperlink ref="E28" r:id="rId38" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901018&amp;view=details" xr:uid="{2DE74961-E0A0-2042-94FB-6BA5A3DF128A}"/>
+    <hyperlink ref="E29" r:id="rId39" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1904064&amp;view=details" xr:uid="{4ECFA076-B38A-554D-9AEF-1F84C17F82EC}"/>
+    <hyperlink ref="E2" r:id="rId40" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035976&amp;view=details" xr:uid="{E77C8F9A-16A7-EC4B-82EE-1597F447A25E}"/>
+    <hyperlink ref="E3" r:id="rId41" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005634&amp;view=details" xr:uid="{49F05A74-5C7A-0942-80A1-94F02EECF317}"/>
+    <hyperlink ref="E10" r:id="rId42" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009893&amp;view=details" xr:uid="{9D28F05D-EC25-FF4C-BF21-90D73DDF231C}"/>
+    <hyperlink ref="E11" r:id="rId43" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060255&amp;view=details" xr:uid="{4EFBE695-B31C-4E40-81A3-249970F1BBCC}"/>
+    <hyperlink ref="E12" r:id="rId44" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0010604&amp;view=details" xr:uid="{9CD440B2-D31D-4F4C-8E2B-A60EB0B2F768}"/>
+    <hyperlink ref="E13" r:id="rId45" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0080090&amp;view=details" xr:uid="{11504974-A45C-DC46-A198-CA3CDBAF36B9}"/>
+    <hyperlink ref="E14" r:id="rId46" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0019222&amp;view=details" xr:uid="{D8F43A80-AB89-E848-AAA2-D86DB4C52DF6}"/>
+    <hyperlink ref="E4" r:id="rId47" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0000981&amp;view=details" xr:uid="{2C4758EB-F43E-CC48-BF31-E604B5D4BB86}"/>
+    <hyperlink ref="E5" r:id="rId48" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0000977&amp;view=details" xr:uid="{A91EA503-7085-6B4E-997E-C51530F36FC8}"/>
+    <hyperlink ref="E6" r:id="rId49" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0003700&amp;view=details" xr:uid="{872335DF-0A32-A84E-86A1-416650F3B1CD}"/>
+    <hyperlink ref="E7" r:id="rId50" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0001012&amp;view=details" xr:uid="{050A3E07-EC3C-1D43-8F06-5C99386F3BB9}"/>
+    <hyperlink ref="E8" r:id="rId51" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0044212&amp;view=details" xr:uid="{FCF14C9D-1D9E-0F4B-A92D-1242BE10175F}"/>
+    <hyperlink ref="E9" r:id="rId52" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0003690&amp;view=details" xr:uid="{6DE4CC29-E438-5749-A3AE-314696F30E27}"/>
+    <hyperlink ref="E53" r:id="rId53" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060033&amp;view=details" xr:uid="{9210A2E5-3AB0-DA46-A5B2-AB15F2D1DCFD}"/>
+    <hyperlink ref="E54" r:id="rId54" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0018216&amp;view=details" xr:uid="{5EE36132-7262-E64D-9E82-9EFE1E8CE10E}"/>
+    <hyperlink ref="E55" r:id="rId55" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:2000773&amp;view=details" xr:uid="{77B9C032-B87D-0F4C-A37A-DBE271F98773}"/>
+    <hyperlink ref="E56" r:id="rId56" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035023&amp;view=details" xr:uid="{63B99A67-5878-584D-AE60-2837F3D4DB8C}"/>
+    <hyperlink ref="E57" r:id="rId57" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0045669&amp;view=details" xr:uid="{91FE1899-52A2-204F-9F51-F044A1276AEC}"/>
+    <hyperlink ref="H1" r:id="rId58" location="fdr_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/k7jqj1s8/GOResultsPROCESS.html - fdr_info" xr:uid="{EB88DF68-37A2-5445-AC1E-181666CF7C5C}"/>
+    <hyperlink ref="E37" r:id="rId59" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009123&amp;view=details" xr:uid="{84B32D7F-6FE3-CD48-9B37-419FB41E6672}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA750552-4C86-594B-8695-330816664114}">
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="13">
+        <v>3.4100000000000001E-8</v>
+      </c>
+      <c r="G2" s="12">
+        <v>86.67</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.47</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.9E-10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5.22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8.38E-10</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4.75</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13">
+        <v>9.4200000000000006E-10</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.09E-9</v>
+      </c>
+      <c r="G7" s="12">
+        <v>4.68</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.44E-9</v>
+      </c>
+      <c r="G8" s="12">
+        <v>4.21</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3.85E-12</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5.9900000000000001E-12</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2.02</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="13">
+        <v>9.3199999999999999E-12</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="13">
+        <v>9.7099999999999996E-12</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9.8199999999999998E-12</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.94</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="G14" s="12">
+        <v>7.29</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.6200000000000001E-4</v>
+      </c>
+      <c r="G15" s="12">
+        <v>7.31</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2.94</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5.13E-5</v>
+      </c>
+      <c r="G18" s="12">
+        <v>35.94</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="G19" s="12">
+        <v>15.13</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="13">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="G20" s="12">
+        <v>4.84</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="13">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="G21" s="12">
+        <v>5.39</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1.76</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2.12E-5</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="13">
+        <v>5.27E-5</v>
+      </c>
+      <c r="G24" s="12">
+        <v>11.98</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="13">
+        <v>5.9700000000000001E-5</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A26" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="13">
+        <v>8.81E-5</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2.99</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1.5400000000000002E-5</v>
+      </c>
+      <c r="G27" s="12">
+        <v>25.29</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="13">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="G28" s="12">
+        <v>53.74</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="13">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="G29" s="12">
+        <v>53.74</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="13">
+        <v>5.0799999999999999E-4</v>
+      </c>
+      <c r="G30" s="12">
+        <v>53.74</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="G31" s="12">
+        <v>42.99</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="13">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="G32" s="12">
+        <v>42.99</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A33" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="13">
+        <v>8.4199999999999998E-4</v>
+      </c>
+      <c r="G33" s="12">
+        <v>42.99</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="13">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="G34" s="12">
+        <v>4.49</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1.17E-4</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1.53</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1.51</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="14">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="G37" s="9">
+        <v>43.81</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1.16E-4</v>
+      </c>
+      <c r="G38" s="9">
+        <v>28.16</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1.83E-4</v>
+      </c>
+      <c r="G39" s="9">
+        <v>24.64</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="14">
+        <v>3.0600000000000001E-4</v>
+      </c>
+      <c r="G40" s="9">
+        <v>11.95</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="14">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="G41" s="9">
+        <v>19.71</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="14">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="G42" s="9">
+        <v>19.71</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4.6E-5</v>
+      </c>
+      <c r="G43" s="9">
+        <v>18.78</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="14">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="G44" s="9">
+        <v>32.86</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1.16E-4</v>
+      </c>
+      <c r="G45" s="9">
+        <v>28.16</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1.83E-4</v>
+      </c>
+      <c r="G46" s="9">
+        <v>24.64</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" s="14">
+        <v>2.72E-4</v>
+      </c>
+      <c r="G47" s="9">
+        <v>21.9</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F48" s="13"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F49" s="13"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:Q88">
+    <sortCondition descending="1" ref="A2:A88"/>
+    <sortCondition descending="1" ref="B2:B88"/>
+    <sortCondition descending="1" ref="C2:C88"/>
+    <sortCondition ref="D2:D88"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" location="p_value_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/k7jqj1s8/GOResultsPROCESS.html - p_value_info" xr:uid="{5A3ABC22-D0FE-8A48-AB57-5BF72EE79D32}"/>
+    <hyperlink ref="G1" r:id="rId2" location="enrich_info" display="http://cbl-gorilla.cs.technion.ac.il/GOrilla/k7jqj1s8/GOResultsPROCESS.html - enrich_info" xr:uid="{F64C102E-6A14-6443-A866-678B2D426070}"/>
+    <hyperlink ref="H43" r:id="rId3" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0018195&amp;view=details" xr:uid="{C6151C52-65D5-CF44-91B6-3F8368E5D935}"/>
+    <hyperlink ref="H44" r:id="rId4" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0019919&amp;view=details" xr:uid="{145CC407-C517-6240-870C-42F7F05EE318}"/>
+    <hyperlink ref="H45" r:id="rId5" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035247&amp;view=details" xr:uid="{BA424DAB-0625-B244-AA6B-52ADF5668115}"/>
+    <hyperlink ref="H46" r:id="rId6" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035246&amp;view=details" xr:uid="{8D0A2098-0961-8F45-9AD7-7D6D5D70B1B1}"/>
+    <hyperlink ref="H47" r:id="rId7" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034969&amp;view=details" xr:uid="{B0FDC64D-5E50-1A4F-8AA0-A8EAC659FD8A}"/>
+    <hyperlink ref="H38" r:id="rId8" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035242&amp;view=details" xr:uid="{A86570C2-FED4-BA4B-99EA-28759543C12D}"/>
+    <hyperlink ref="H39" r:id="rId9" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008469&amp;view=details" xr:uid="{149AF1CF-65BE-6144-9B92-C314437ECDDD}"/>
+    <hyperlink ref="H40" r:id="rId10" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0017147&amp;view=details" xr:uid="{701FF7AC-FAD1-3241-A3B9-BD22BFCCED03}"/>
+    <hyperlink ref="H41" r:id="rId11" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016864&amp;view=details" xr:uid="{86159D0B-DDE7-444D-A572-A66358A7A2F4}"/>
+    <hyperlink ref="H42" r:id="rId12" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016273&amp;view=details" xr:uid="{FDFE8852-3003-334A-AEE7-A36DCF060B2A}"/>
+    <hyperlink ref="H35" r:id="rId13" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0031224&amp;view=details" xr:uid="{FB7FDED1-D9AD-ED43-8917-47F99BFEA0BC}"/>
+    <hyperlink ref="H36" r:id="rId14" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0016021&amp;view=details" xr:uid="{C0214746-F73F-474B-905A-C7B7BD2677AC}"/>
+    <hyperlink ref="H37" r:id="rId15" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1905103&amp;view=details" xr:uid="{C556BFB5-E346-3A49-BE44-3F2D0EAD9987}"/>
+    <hyperlink ref="H27" r:id="rId16" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0090502&amp;view=details" xr:uid="{2CA76E22-FFBD-414C-80B6-535B4737304F}"/>
+    <hyperlink ref="H28" r:id="rId17" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0042730&amp;view=details" xr:uid="{0463113C-2900-B74F-8AE2-45D1D8E986AB}"/>
+    <hyperlink ref="H29" r:id="rId18" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060278&amp;view=details" xr:uid="{37181353-69A1-2441-B9E3-F3F719DB1C2B}"/>
+    <hyperlink ref="H30" r:id="rId19" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060279&amp;view=details" xr:uid="{2A3ADE2F-FDA7-014B-9A22-2D7066A33410}"/>
+    <hyperlink ref="H31" r:id="rId20" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0001325&amp;view=details" xr:uid="{2D9D51F5-BB56-AF4D-9ADA-E840D0073C11}"/>
+    <hyperlink ref="H18" r:id="rId21" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0099508&amp;view=details" xr:uid="{20DA960C-3BAF-4544-8BB1-1C8EB31B4B92}"/>
+    <hyperlink ref="H19" r:id="rId22" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005251&amp;view=details" xr:uid="{60FD2B87-2F6E-254A-B0F6-036B234E7576}"/>
+    <hyperlink ref="H20" r:id="rId23" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0015079&amp;view=details" xr:uid="{E02E72A7-2D55-A14A-BB3B-E37155CA6A4D}"/>
+    <hyperlink ref="H21" r:id="rId24" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005267&amp;view=details" xr:uid="{15A379A6-950B-D245-84CA-5784645A617E}"/>
+    <hyperlink ref="H14" r:id="rId25" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034705&amp;view=details" xr:uid="{315A432C-3742-794A-98E3-22026E3FB425}"/>
+    <hyperlink ref="H15" r:id="rId26" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0008076&amp;view=details" xr:uid="{9446A474-C4A5-804D-B7A7-3F9EC3CE4DB2}"/>
+    <hyperlink ref="H16" r:id="rId27" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0098797&amp;view=details" xr:uid="{3C51FAD7-88A4-1847-AA01-C62809D0AA3E}"/>
+    <hyperlink ref="H17" r:id="rId28" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034703&amp;view=details" xr:uid="{997D620A-3645-1F41-9BE0-A5C99552A392}"/>
+    <hyperlink ref="H22" r:id="rId29" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0048856&amp;view=details" xr:uid="{4D1E9D66-733D-9446-A61A-4A9123397225}"/>
+    <hyperlink ref="H23" r:id="rId30" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009653&amp;view=details" xr:uid="{F972FD0C-3DEC-564F-A2A1-E497D5A0BCF9}"/>
+    <hyperlink ref="H24" r:id="rId31" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:1901381&amp;view=details" xr:uid="{4689F5CD-8789-9C41-B58D-31DDC565F3D7}"/>
+    <hyperlink ref="H25" r:id="rId32" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034764&amp;view=details" xr:uid="{8455BA77-676F-4840-83EA-ED038252D866}"/>
+    <hyperlink ref="H26" r:id="rId33" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0034762&amp;view=details" xr:uid="{0FDED016-3C64-854D-BE12-B2E2DD584309}"/>
+    <hyperlink ref="H2" r:id="rId34" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0035976&amp;view=details" xr:uid="{4F46212E-F13E-6E4A-8924-84B266C65778}"/>
+    <hyperlink ref="H3" r:id="rId35" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0005634&amp;view=details" xr:uid="{D1135C98-DC09-2A42-95BA-33885152B237}"/>
+    <hyperlink ref="H9" r:id="rId36" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009893&amp;view=details" xr:uid="{60FD0638-6C42-A844-824C-919B5BABFAFF}"/>
+    <hyperlink ref="H10" r:id="rId37" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0060255&amp;view=details" xr:uid="{AF413EE9-6523-2C45-85D3-7196F600499E}"/>
+    <hyperlink ref="H11" r:id="rId38" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0010604&amp;view=details" xr:uid="{0378556B-5B4E-6C44-92B9-2951A26AAABE}"/>
+    <hyperlink ref="H12" r:id="rId39" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0080090&amp;view=details" xr:uid="{536F8203-60BF-654E-A363-B51BFD7253FE}"/>
+    <hyperlink ref="H13" r:id="rId40" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0019222&amp;view=details" xr:uid="{1D3799DE-1276-6E44-BC55-476676B6298D}"/>
+    <hyperlink ref="H4" r:id="rId41" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0000981&amp;view=details" xr:uid="{B382C9E4-8025-4C4A-84FF-DEBFF4AE051A}"/>
+    <hyperlink ref="H5" r:id="rId42" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0000977&amp;view=details" xr:uid="{61587AF2-1B75-B449-AF4E-3B288948518F}"/>
+    <hyperlink ref="H6" r:id="rId43" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0003700&amp;view=details" xr:uid="{3E9B516F-EE7D-C64C-9994-1E4D66B91B1F}"/>
+    <hyperlink ref="H7" r:id="rId44" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0001012&amp;view=details" xr:uid="{CB97AF52-AD11-2748-9260-577F2D95AA89}"/>
+    <hyperlink ref="H8" r:id="rId45" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0044212&amp;view=details" xr:uid="{5B18071F-5A07-2242-9A24-155958380BDD}"/>
+    <hyperlink ref="H34" r:id="rId46" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0009123&amp;view=details" xr:uid="{6A221B6B-C01C-C347-AF41-0CD8FDF82DD5}"/>
+    <hyperlink ref="H33" r:id="rId47" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0031639&amp;view=details" xr:uid="{C886B7AA-C94A-7B40-A128-7AAB580ABF4B}"/>
+    <hyperlink ref="H32" r:id="rId48" display="http://www.godatabase.org/cgi-bin/amigo/go.cgi?query=GO:0090656&amp;view=details" xr:uid="{BBDC7F12-2E2E-4445-93A9-C9E869145861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
